--- a/OutputFiles/TC01_Trials_Filter_TrialCode-NCIMatch_WebData.xlsx
+++ b/OutputFiles/TC01_Trials_Filter_TrialCode-NCIMatch_WebData.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="WebDataCanine" r:id="rId3" sheetId="1"/>
+    <sheet name="WebData" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="119">
   <si>
     <t>Case ID</t>
   </si>
@@ -59,6 +59,9 @@
     <t>WHITE</t>
   </si>
   <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
     <t>CTDC-43065</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
     <t>Endometrioid endometrial adenocarcinoma</t>
   </si>
   <si>
+    <t>NOT_HISPANIC_OR_LATINO</t>
+  </si>
+  <si>
     <t>CTDC-43238</t>
   </si>
   <si>
@@ -116,6 +122,9 @@
     <t>CTDC-44145</t>
   </si>
   <si>
+    <t>HISPANIC_OR_LATINO</t>
+  </si>
+  <si>
     <t>CTDC-44181</t>
   </si>
   <si>
@@ -270,9 +279,6 @@
   </si>
   <si>
     <t>CTDC-45974</t>
-  </si>
-  <si>
-    <t>UNKNOWN</t>
   </si>
   <si>
     <t>CTDC-45987</t>
@@ -461,79 +467,91 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -545,18 +563,21 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -568,18 +589,21 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -591,18 +615,21 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -614,64 +641,73 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -683,18 +719,21 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -706,18 +745,21 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -729,18 +771,21 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -752,41 +797,47 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -798,110 +849,125 @@
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -913,41 +979,47 @@
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -959,18 +1031,21 @@
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -982,18 +1057,21 @@
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
@@ -1005,41 +1083,47 @@
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
@@ -1051,41 +1135,47 @@
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
@@ -1097,87 +1187,99 @@
         <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="H30" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
         <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
@@ -1189,133 +1291,151 @@
         <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="H35" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
         <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
         <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
       </c>
       <c r="G39" t="s">
         <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
@@ -1327,18 +1447,21 @@
         <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
         <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
@@ -1350,18 +1473,21 @@
         <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
       </c>
       <c r="G41" t="s">
         <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
@@ -1373,18 +1499,21 @@
         <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
         <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
@@ -1396,41 +1525,47 @@
         <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
         <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
@@ -1442,41 +1577,47 @@
         <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="H45" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
       </c>
       <c r="G46" t="s">
         <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
@@ -1488,64 +1629,73 @@
         <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>86</v>
+        <v>15</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
       </c>
       <c r="G48" t="s">
         <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
@@ -1557,64 +1707,73 @@
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
       </c>
       <c r="G50" t="s">
         <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
       </c>
       <c r="G51" t="s">
         <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s">
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E52" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
         <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
         <v>9</v>
@@ -1626,64 +1785,73 @@
         <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
         <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E54" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
         <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
         <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
@@ -1695,18 +1863,21 @@
         <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
       </c>
       <c r="G56" t="s">
         <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
@@ -1718,18 +1889,21 @@
         <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
@@ -1741,87 +1915,99 @@
         <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
         <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="H59" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E60" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
         <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B61" t="s">
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" t="s">
         <v>9</v>
@@ -1833,18 +2019,21 @@
         <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="H62" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B63" t="s">
         <v>9</v>
@@ -1856,18 +2045,21 @@
         <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
         <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
@@ -1879,64 +2071,73 @@
         <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>86</v>
+        <v>15</v>
+      </c>
+      <c r="H64" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B65" t="s">
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="H65" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B66" t="s">
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G66" t="s">
         <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B67" t="s">
         <v>9</v>
@@ -1948,87 +2149,99 @@
         <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="H67" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B68" t="s">
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E68" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F68" t="s">
         <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="H68" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B69" t="s">
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E69" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F69" t="s">
         <v>13</v>
       </c>
       <c r="G69" t="s">
         <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B70" t="s">
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G70" t="s">
         <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B71" t="s">
         <v>9</v>
@@ -2040,13 +2253,16 @@
         <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G71" t="s">
         <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
